--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/SheetProtection.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/SheetProtection.xlsx
@@ -447,11 +447,10 @@
   <x:sheetViews>
     <x:sheetView tabSelected="0" workbookViewId="0"/>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="3" max="16384" width="9.850625" style="0" customWidth="1"/>
-    <x:col min="1" max="1" width="28.55" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="9.850625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="28.550625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="9.140625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:2">
@@ -504,7 +503,7 @@
   <x:sheetViews>
     <x:sheetView tabSelected="0" workbookViewId="0"/>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData/>
   <x:sheetProtection password="CF7A" sheet="1" insertColumns="0" insertRows="0"/>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/SheetProtection.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/SheetProtection.xlsx
@@ -103,7 +103,7 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="6">
+  <x:cellStyleXfs count="11">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -122,8 +122,23 @@
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:protection locked="0" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="1"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:protection locked="0" hidden="1"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:protection locked="0" hidden="0"/>
+    </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="6">
+  <x:cellXfs count="11">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -146,6 +161,26 @@
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="0" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="1"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="0" hidden="1"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="0" hidden="0"/>
     </x:xf>
   </x:cellXfs>
@@ -454,31 +489,31 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:2">
-      <x:c r="A1" s="1" t="s">
+      <x:c r="A1" s="6" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="B1" s="2" t="s"/>
+      <x:c r="B1" s="7" t="s"/>
     </x:row>
     <x:row r="2" spans="1:2">
-      <x:c r="A2" s="1" t="s">
+      <x:c r="A2" s="6" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="B2" s="3" t="s"/>
+      <x:c r="B2" s="8" t="s"/>
     </x:row>
     <x:row r="3" spans="1:2">
-      <x:c r="A3" s="1" t="s">
+      <x:c r="A3" s="6" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="B3" s="4" t="s"/>
+      <x:c r="B3" s="9" t="s"/>
     </x:row>
     <x:row r="4" spans="1:2">
-      <x:c r="A4" s="1" t="s">
+      <x:c r="A4" s="6" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="B4" s="5" t="s"/>
+      <x:c r="B4" s="10" t="s"/>
     </x:row>
   </x:sheetData>
-  <x:sheetProtection sheet="1" formatCells="0" insertColumns="0" deleteColumns="0" deleteRows="0"/>
+  <x:sheetProtection sheet="1"/>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
@@ -505,7 +540,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData/>
-  <x:sheetProtection password="CF7A" sheet="1" insertColumns="0" insertRows="0"/>
+  <x:sheetProtection password="CF7A" sheet="1"/>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/SheetProtection.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/SheetProtection.xlsx
@@ -513,7 +513,7 @@
       <x:c r="B4" s="10" t="s"/>
     </x:row>
   </x:sheetData>
-  <x:sheetProtection sheet="1"/>
+  <x:sheetProtection sheet="1" formatCells="0" insertColumns="0" deleteColumns="0" deleteRows="0"/>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
@@ -540,7 +540,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData/>
-  <x:sheetProtection password="CF7A" sheet="1"/>
+  <x:sheetProtection password="CF7A" sheet="1" insertColumns="0" insertRows="0"/>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/SheetProtection.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/SheetProtection.xlsx
@@ -103,7 +103,7 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="11">
+  <x:cellStyleXfs count="6">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -122,23 +122,8 @@
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:protection locked="0" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="1"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="0" hidden="1"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="0" hidden="0"/>
-    </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="11">
+  <x:cellXfs count="6">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -161,26 +146,6 @@
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="0" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="1"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="0" hidden="1"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="0" hidden="0"/>
     </x:xf>
   </x:cellXfs>
@@ -489,28 +454,28 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:2">
-      <x:c r="A1" s="6" t="s">
+      <x:c r="A1" s="1" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="B1" s="7" t="s"/>
+      <x:c r="B1" s="2" t="s"/>
     </x:row>
     <x:row r="2" spans="1:2">
-      <x:c r="A2" s="6" t="s">
+      <x:c r="A2" s="1" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="B2" s="8" t="s"/>
+      <x:c r="B2" s="3" t="s"/>
     </x:row>
     <x:row r="3" spans="1:2">
-      <x:c r="A3" s="6" t="s">
+      <x:c r="A3" s="1" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="B3" s="9" t="s"/>
+      <x:c r="B3" s="4" t="s"/>
     </x:row>
     <x:row r="4" spans="1:2">
-      <x:c r="A4" s="6" t="s">
+      <x:c r="A4" s="1" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="B4" s="10" t="s"/>
+      <x:c r="B4" s="5" t="s"/>
     </x:row>
   </x:sheetData>
   <x:sheetProtection sheet="1" formatCells="0" insertColumns="0" deleteColumns="0" deleteRows="0"/>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/SheetProtection.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/SheetProtection.xlsx
@@ -482,14 +482,7 @@
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter differentOddEven="1" differentFirst="1" scaleWithDoc="1" alignWithMargins="1">
-    <x:oddHeader/>
-    <x:oddFooter/>
-    <x:evenHeader/>
-    <x:evenFooter/>
-    <x:firstHeader/>
-    <x:firstFooter/>
-  </x:headerFooter>
+  <x:headerFooter/>
   <x:tableParts count="0"/>
 </x:worksheet>
 </file>
@@ -509,14 +502,7 @@
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter differentOddEven="1" differentFirst="1" scaleWithDoc="1" alignWithMargins="1">
-    <x:oddHeader/>
-    <x:oddFooter/>
-    <x:evenHeader/>
-    <x:evenFooter/>
-    <x:firstHeader/>
-    <x:firstFooter/>
-  </x:headerFooter>
+  <x:headerFooter/>
   <x:tableParts count="0"/>
 </x:worksheet>
 </file>
--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/SheetProtection.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/SheetProtection.xlsx
@@ -449,7 +449,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="28.550625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="30.1090625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.140625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/SheetProtection.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/SheetProtection.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <x:workbookPr codeName="ThisWorkbook"/>
   <x:bookViews>
     <x:workbookView firstSheet="0" activeTab="0"/>
   </x:bookViews>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/SheetProtection.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/SheetProtection.xlsx
@@ -449,7 +449,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="30.1090625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="30.085625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.140625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/SheetProtection.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/SheetProtection.xlsx
@@ -449,7 +449,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="30.085625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="28.550625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.140625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/SheetProtection.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/SheetProtection.xlsx
@@ -36,7 +36,7 @@
   <x:numFmts count="1">
     <x:numFmt numFmtId="0" formatCode=""/>
   </x:numFmts>
-  <x:fonts count="2">
+  <x:fonts count="3">
     <x:font>
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
@@ -46,6 +46,13 @@
     </x:font>
     <x:font>
       <x:b/>
+      <x:vertAlign val="baseline"/>
+      <x:sz val="11"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+    </x:font>
+    <x:font>
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
       <x:color rgb="FF000000"/>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/SheetProtection.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/SheetProtection.xlsx
@@ -452,7 +452,7 @@
   </x:sheetPr>
   <x:dimension ref="A1:B4"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="0" workbookViewId="0"/>
+    <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
@@ -501,7 +501,7 @@
   </x:sheetPr>
   <x:dimension ref="A1"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="0" workbookViewId="0"/>
+    <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData/>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/SheetProtection.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/SheetProtection.xlsx
@@ -456,7 +456,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="28.550625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="26.970625000000002" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.140625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/SheetProtection.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/SheetProtection.xlsx
@@ -111,47 +111,47 @@
     </x:border>
   </x:borders>
   <x:cellStyleXfs count="6">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="1"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="0" hidden="1"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="0" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
   <x:cellXfs count="6">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="1"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="0" hidden="1"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="0" hidden="0"/>
     </x:xf>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/SheetProtection.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/SheetProtection.xlsx
@@ -456,7 +456,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="26.970625000000002" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="26.970625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.140625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
